--- a/biology/Botanique/Ceanothus_herbaceus/Ceanothus_herbaceus.xlsx
+++ b/biology/Botanique/Ceanothus_herbaceus/Ceanothus_herbaceus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Céanothe à feuilles étroites
 Ceanothus herbaceus, le Céanothe à feuilles étroites, est une espèce de plantes à fleurs dicotylédones de la famille des Rhamnaceae, indigène d'Amérique du Nord.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon The Plant List            (10 avril 2020)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (10 avril 2020) :
 Ceanothus americanus var. herbaceus (Raf.) Torr. &amp; A. Gray
 Ceanothus baumannianus Spach
 Ceanothus fontanesianus Spach
@@ -557,7 +574,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Céanothe à feuilles étroites est un arbuste au tiges ramifiées qui atteint 30 à 100 cm de hauteur. Ses feuilles elliptiques sont alternes. Les fleurs blanches forment des ombelles. Les fruits sont des capsules déhiscentes. 
 </t>
@@ -590,11 +609,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Habitat et répartition
-Le Céanothe à feuilles étroites croit dans les milieux secs et ouverts comme les alvars, les berges et les clairières[2].
-Son aire de répartition inclut le sud du Québec, de l'Ontario et du Manitoba, au Canada, ainsi que les états américains suivants: Indiana, Maine, Michigan, New York, Ohio, Vermont, Virginie-Occidentale, Illinois, Iowa, Kansas, Minnesota, Missouri, Nebraska, Oklahoma, Dakota du sud, Wisconsin, Montana, Wyoming, Arkansas, Kentucky, Maryland, District de Columbia, Texas[3].
-Espèces associées
-Le Céanothe à feuilles étroites est la plante hôte de différente espèces de papillons. La chenille de l'Hespérie tachetée (Erynnis martialis) se nourrit de ses feuilles[4].
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Céanothe à feuilles étroites croit dans les milieux secs et ouverts comme les alvars, les berges et les clairières.
+Son aire de répartition inclut le sud du Québec, de l'Ontario et du Manitoba, au Canada, ainsi que les états américains suivants: Indiana, Maine, Michigan, New York, Ohio, Vermont, Virginie-Occidentale, Illinois, Iowa, Kansas, Minnesota, Missouri, Nebraska, Oklahoma, Dakota du sud, Wisconsin, Montana, Wyoming, Arkansas, Kentucky, Maryland, District de Columbia, Texas.
 </t>
         </is>
       </c>
@@ -620,12 +642,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces associées</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Céanothe à feuilles étroites est la plante hôte de différente espèces de papillons. La chenille de l'Hespérie tachetée (Erynnis martialis) se nourrit de ses feuilles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ceanothus_herbaceus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ceanothus_herbaceus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Statut de conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Céanothe à feuilles étroites est susceptible d'être désigné protégé au Québec, où il est confiné au bassin versant de la vallée de la rivière des Outaouais[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Céanothe à feuilles étroites est susceptible d'être désigné protégé au Québec, où il est confiné au bassin versant de la vallée de la rivière des Outaouais.
 </t>
         </is>
       </c>
